--- a/Requirement&Actions&Issues&Breakdown.xlsx
+++ b/Requirement&Actions&Issues&Breakdown.xlsx
@@ -5,18 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\q5894c\Desktop\6-group\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\q5894c\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8250" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6240" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" r:id="rId1"/>
     <sheet name="Breakdown" sheetId="4" r:id="rId2"/>
     <sheet name="Actions" sheetId="2" r:id="rId3"/>
     <sheet name="Issues" sheetId="3" r:id="rId4"/>
+    <sheet name="Projects" sheetId="5" r:id="rId5"/>
+    <sheet name="Meeting Minutes" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Actions!$A$5:$G$22</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -85,26 +90,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RID12345</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TID12345</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IID12345</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Open</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>All</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AID0001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -121,40 +110,599 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Open</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0003</t>
+  </si>
+  <si>
+    <t>demo milestone plan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mingjing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0004</t>
+  </si>
+  <si>
+    <t>开发模式调通</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buju</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成github，thinkPHP等插件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhihua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buju</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0009</t>
+  </si>
+  <si>
+    <t>mingjing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0010</t>
+  </si>
+  <si>
+    <t>buju</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会论坛向微信平台迁移</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID0002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于微信平台开发旅游公众号（target 斯里兰卡）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lin tao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IID0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司网络不能用命令行访问gitHub</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lin Tao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0012</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eclipse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集成开发环境搭建</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0013</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.w3school.com.cn/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Details description of each page </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>ThinkPHP / PHP</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语言学习实践</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HTML5/JSS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计专家兼职指导</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计（页面设计）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>聘用兼职</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>美工设计人员</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将今天讨论的小区水果批发流程画出来，连同拍下的图片一起导入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>github</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SVN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的版本控制策略和实现</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eclipse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集成开发环境搭建</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thinkPHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等插件</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PHP 7.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语言学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sharing</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Git &amp; svn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用方法和办公室访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ok</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuzhihua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RID0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台需支持微信小程序接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TID0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web环境的各版本统一搭建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出文档，文档内容含各软件版本、搭建步骤、注意事项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID0003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商团购平台业务流程UML图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ivan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID0004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>为开发商做一个</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>语言学习实践</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AID0003</t>
-  </si>
-  <si>
-    <t>demo milestone plan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mingjing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ThinkPHP / PHP</t>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>APP</t>
     </r>
     <r>
       <rPr>
@@ -165,15 +713,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>语言学习实践</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AID0004</t>
-  </si>
-  <si>
-    <t>开发模式调通</t>
+      <t>，做开发商的房屋租赁管理系统。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页页面</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -181,30 +726,97 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AID0005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5/JSS 学习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AID0006</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>基于</t>
-    </r>
+    <t>数据库设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0014</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0016</t>
+  </si>
+  <si>
+    <t>AID0017</t>
+  </si>
+  <si>
+    <t>数据表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0018</t>
+  </si>
+  <si>
+    <t>github （svn）数据（代码，文档）全备份</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lintao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于微信小程序接口的设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minutes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunbin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lintao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buju</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>让用户买到更便宜的水果，完成真正意义上的团购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eclipse</t>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+     </t>
     </r>
     <r>
       <rPr>
@@ -215,62 +827,135 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>集成开发环境搭建</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成github，thinkPHP等插件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhihua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AID0007</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>buju</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AID0008</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AID0009</t>
-  </si>
-  <si>
-    <t>UI 设计（页面设计）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mingjing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>聘用兼职UI 美工设计人员</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 设计专家兼职指导</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AID0010</t>
-  </si>
-  <si>
-    <t>将今天讨论的小区水果批发流程画出来，连同拍下的图片一起导入github</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>buju</t>
+      <t>商家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;-- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>团购中间商</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;--- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户
+以小区为单位，背后是认识（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trust</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）的人</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">纯粹的销售平台，呈现货物找到买家
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">简化微商（电子商务）的的流程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商团购平台 （服务微商 +  价格透明）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raiser</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +963,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +1001,51 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -356,15 +1086,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,9 +1113,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -697,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -721,7 +1491,10 @@
     </row>
     <row r="3" spans="1:3" ht="15" thickTop="1">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +1508,7 @@
   <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -772,7 +1545,7 @@
     </row>
     <row r="4" spans="1:7" ht="15" thickTop="1">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -783,200 +1556,536 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G15"/>
+  <dimension ref="A4:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="31.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="11.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" ht="13.5" thickBot="1"/>
+    <row r="5" spans="1:7" ht="27" thickTop="1" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" customFormat="1" ht="15" thickTop="1">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3">
+        <v>43041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="7">
+        <v>43053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" customFormat="1" ht="14.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3">
+        <v>43046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" customFormat="1" ht="14.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3">
+        <v>43046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="7">
+        <v>43063</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" customFormat="1" ht="14.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3">
+        <v>43046</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="7">
+        <v>43080</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="11">
+        <v>43088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="11">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5">
+      <c r="A15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="11">
+        <v>43046</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="25.5">
+      <c r="A16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="7">
+        <v>43053</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="7">
+        <v>43049</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="7">
+        <v>43053</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="25.5">
+      <c r="A19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="11">
+        <v>43053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="11">
+        <v>43060</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="11">
+        <v>43060</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="11">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="11">
+        <v>43069</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:G22"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G18" r:id="rId1"/>
+    <hyperlink ref="G10" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="29.25" customWidth="1"/>
-    <col min="3" max="3" width="26.875" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="15" thickBot="1"/>
-    <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="1" t="s">
+    <row r="2" spans="1:8" ht="15" thickBot="1"/>
+    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickTop="1">
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickTop="1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
+        <v>43053</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="46.125" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="84" customHeight="1">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3">
-        <v>43041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3">
-        <v>43053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3">
-        <v>43046</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="3">
-        <v>43046</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3">
-        <v>43063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="3">
-        <v>43046</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -985,46 +2094,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="36.375" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15" thickBot="1"/>
-    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickTop="1">
-      <c r="A4" t="s">
-        <v>16</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5">
+      <c r="A4" s="15">
+        <v>43053</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5">
+      <c r="B5" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57">
+      <c r="B6" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Requirement&Actions&Issues&Breakdown.xlsx
+++ b/Requirement&Actions&Issues&Breakdown.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\q5894c\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MingjingLiu\ForMyself\GitHub\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6240" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -956,6 +956,10 @@
   </si>
   <si>
     <t>Raiser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经找到兼职UE设计人员。梁玉婷：微信号：sophieting001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1558,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1748,12 +1752,15 @@
         <v>43088</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="25.5">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>67</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>61</v>

--- a/Requirement&Actions&Issues&Breakdown.xlsx
+++ b/Requirement&Actions&Issues&Breakdown.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6240" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="118">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -961,6 +961,13 @@
   <si>
     <t>已经找到兼职UE设计人员。梁玉婷：微信号：sophieting001</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享空间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID0005</t>
   </si>
 </sst>
 </file>
@@ -1562,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2024,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2093,6 +2100,14 @@
         <v>103</v>
       </c>
       <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Requirement&Actions&Issues&Breakdown.xlsx
+++ b/Requirement&Actions&Issues&Breakdown.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6240" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6240" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Meeting Minutes" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Actions!$A$5:$G$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Actions!$A$5:$G$26</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -640,10 +640,6 @@
   </si>
   <si>
     <t>Close</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -959,15 +955,186 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>已经找到兼职UE设计人员。梁玉婷：微信号：sophieting001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>共享空间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PID0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已经找到兼职UE设计人员。梁玉婷：微信号：sophieting001. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月初开始和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>兼职的同事交流页面设计。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体内容参考：Eclipse +ThinkPHP+github 集成开发运行环境配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buju</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">github </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目录分门别类管理</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lintao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小公司注册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>liumingjing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序demo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ivan/Xianlei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据表</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buju/lintao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台框架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhihua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序起名字（每人五个）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0019</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0020</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0021</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0022</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0023</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID0024</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1073,7 +1240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1096,6 +1263,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1108,7 +1290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1158,6 +1340,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1502,10 +1693,10 @@
     </row>
     <row r="3" spans="1:3" ht="15" thickTop="1">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1556,7 +1747,7 @@
     </row>
     <row r="4" spans="1:7" ht="15" thickTop="1">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1567,10 +1758,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G23"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A4:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1608,7 +1800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" customFormat="1" ht="15" thickTop="1">
+    <row r="6" spans="1:7" customFormat="1" ht="15" hidden="1" thickTop="1">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1628,7 +1820,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="13.5" thickTop="1">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1648,7 +1840,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="8" spans="1:7" customFormat="1" ht="14.25">
+    <row r="8" spans="1:7" customFormat="1" ht="14.25" hidden="1">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1665,7 +1857,7 @@
         <v>43046</v>
       </c>
     </row>
-    <row r="9" spans="1:7" customFormat="1" ht="14.25">
+    <row r="9" spans="1:7" customFormat="1" ht="14.25" hidden="1">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" customFormat="1" ht="14.25">
+    <row r="11" spans="1:7" customFormat="1" ht="14.25" hidden="1">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1767,7 +1959,7 @@
         <v>67</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>61</v>
@@ -1778,8 +1970,11 @@
       <c r="F14" s="11">
         <v>43069</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="25.5">
+      <c r="G14" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" hidden="1">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1796,7 +1991,7 @@
         <v>43046</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="25.5">
+    <row r="16" spans="1:7" ht="25.5" hidden="1">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1816,7 +2011,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" s="5" t="s">
         <v>55</v>
       </c>
@@ -1856,41 +2051,44 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="25.5">
+    <row r="19" spans="1:7" ht="38.25" hidden="1">
       <c r="A19" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="D19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="F19" s="11">
         <v>43053</v>
       </c>
+      <c r="G19" s="12" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="F20" s="11">
         <v>43060</v>
@@ -1898,16 +2096,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="F21" s="11">
         <v>43060</v>
@@ -1915,16 +2113,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="F22" s="11">
         <v>43069</v>
@@ -1932,23 +2133,137 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="D23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="F23" s="11">
         <v>43069</v>
       </c>
     </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="18">
+        <v>43066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="18">
+        <v>43089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="18">
+        <v>43067</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="18">
+        <v>43067</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="18">
+        <v>43067</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="18">
+        <v>43062</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:G22"/>
+  <autoFilter ref="A5:G26">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="Open"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G18" r:id="rId1"/>
@@ -1964,7 +2279,7 @@
   <dimension ref="A2:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2033,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2053,7 +2368,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
@@ -2079,34 +2394,34 @@
     </row>
     <row r="5" spans="1:4" ht="84" customHeight="1">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2436,7 @@
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2133,13 +2448,13 @@
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="C3" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5">
@@ -2147,26 +2462,26 @@
         <v>43053</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5">
       <c r="B5" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57">
       <c r="B6" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
